--- a/Programacion.xlsx
+++ b/Programacion.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liceo Compu-Market\Desktop\Refuerzo-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Menú" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Datos" sheetId="3" r:id="rId3"/>
+    <sheet name="Busqueda" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Numero </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="31">
   <si>
     <t xml:space="preserve">Cargo </t>
   </si>
@@ -99,16 +98,40 @@
   <si>
     <t xml:space="preserve">Velbeth Dayana Ortis Castro </t>
   </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Id :</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Edad:</t>
+  </si>
+  <si>
+    <t>Sueldo:</t>
+  </si>
+  <si>
+    <t>Fecha Inicial:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Sueldo Mensual </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;Q&quot;* #,##0.00_);_(&quot;Q&quot;* \(#,##0.00\);_(&quot;Q&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +139,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,21 +198,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_([$Q-100A]* #,##0.00_);_([$Q-100A]* \(#,##0.00\);_([$Q-100A]* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF009900"/>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -157,6 +307,168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$C$3" max="100" min="1" page="10" val="58"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3083" name="Button 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Sumar</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>809625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Spinner 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F102" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:F102"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Id" dataDxfId="3"/>
+    <tableColumn id="2" name="Nombre Completo  "/>
+    <tableColumn id="3" name="Edad " dataDxfId="2"/>
+    <tableColumn id="4" name="Cargo "/>
+    <tableColumn id="5" name="Sueldo " dataDxfId="1">
+      <calculatedColumnFormula>RANDBETWEEN(2700,5000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="Fecha Inicial " dataDxfId="0">
+      <calculatedColumnFormula>RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,6 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,13 +2450,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Hoja2">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,2244 +2466,2257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
         <f ca="1">RANDBETWEEN(2700,5000)</f>
-        <v>4931</v>
+        <v>3856</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43509</v>
+        <v>43539</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(2700,5000)</f>
-        <v>4813</v>
+        <v>4066</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F66" ca="1" si="1">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4290</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3413</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2834</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4013</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3904</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4884</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2899</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3864</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3727</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3784</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>43551</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2955</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3517</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4206</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3758</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4218</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3851</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C20" s="3">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3261</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3290</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C22" s="3">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4859</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3508</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3596</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3648</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4356</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2917</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3234</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3979</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3006</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4972</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3163</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4837</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3980</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4305</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3583</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4174</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C36" s="3">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2826</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4543</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3303</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C38" s="3">
+        <v>23</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3411</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4968</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C39" s="3">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3703</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4247</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3279</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="3">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4525</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3373</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="3">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3565</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="3">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2872</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3812</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3470</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="3">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3112</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3521</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3510</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4586</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3413</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4985</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4217</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4963</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="3">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3898</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="3">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3510</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="3">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3611</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="3">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3095</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="3">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2735</v>
+      </c>
+      <c r="F60" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>43580</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4315</v>
-      </c>
-      <c r="F9" s="1">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3411</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="3">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4382</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3278</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3">
+        <v>23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3719</v>
+      </c>
+      <c r="F64" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>43542</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3930</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3494</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C65" s="3">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4186</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43482</v>
+      </c>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3">
+        <v>23</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3492</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43476</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4809</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C67" s="3">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
+        <v>2749</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F101" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2841</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4648</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3461</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4327</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4238</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4270</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4747</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3470</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43532</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4657</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3228</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3021</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4493</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3051</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3371</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2962</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3189</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4406</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43583</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4562</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43488</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3007</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4653</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43553</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33">
-        <v>23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3699</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4022</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43490</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2725</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43587</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4247</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43568</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3719</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3730</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4920</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2924</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3576</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3726</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>23</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44">
-        <v>23</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2928</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>23</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3976</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4837</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3426</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43586</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4354</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3804</v>
-      </c>
-      <c r="F49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43563</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3485</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3524</v>
-      </c>
-      <c r="F51" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43552</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2833</v>
-      </c>
-      <c r="F52" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53">
-        <v>23</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4164</v>
-      </c>
-      <c r="F53" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4630</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55">
-        <v>23</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2749</v>
-      </c>
-      <c r="F55" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>23</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3830</v>
-      </c>
-      <c r="F56" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
-        <v>23</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4160</v>
-      </c>
-      <c r="F57" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
-        <v>23</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3037</v>
-      </c>
-      <c r="F58" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4666</v>
-      </c>
-      <c r="F59" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4781</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43570</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4043</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43589</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4653</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3377</v>
-      </c>
-      <c r="F63" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4278</v>
-      </c>
-      <c r="F64" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>3580</v>
-      </c>
-      <c r="F65" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43546</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4724</v>
-      </c>
-      <c r="F66" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>43538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" ref="E67:E101" ca="1" si="2">RANDBETWEEN(2700,5000)</f>
-        <v>4874</v>
-      </c>
-      <c r="F67" s="1">
-        <f t="shared" ref="F67:F103" ca="1" si="3">RANDBETWEEN(DATE(2019,1,10),DATE(2019,5,4))</f>
-        <v>43517</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="3">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2925</v>
+        <v>4313</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3">
         <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4428</v>
+        <v>3338</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3">
         <v>23</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="3">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4721</v>
+        <v>4596</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71">
+        <v>15</v>
+      </c>
+      <c r="C71" s="3">
         <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="3">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2708</v>
+        <v>3745</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43527</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="C72" s="3">
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="3">
+        <v>6</v>
+      </c>
+      <c r="E72" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2781</v>
+        <v>2855</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73">
+        <v>17</v>
+      </c>
+      <c r="C73" s="3">
         <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="3">
+        <v>6</v>
+      </c>
+      <c r="E73" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3399</v>
+        <v>4443</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3">
         <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="3">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4865</v>
+        <v>4501</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75">
+        <v>19</v>
+      </c>
+      <c r="C75" s="3">
         <v>23</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="3">
+        <v>6</v>
+      </c>
+      <c r="E75" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3324</v>
+        <v>3378</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43479</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="C76" s="3">
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="3">
+        <v>6</v>
+      </c>
+      <c r="E76" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4307</v>
+        <v>3867</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43482</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77">
+        <v>21</v>
+      </c>
+      <c r="C77" s="3">
         <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3170</v>
+        <v>2811</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="C78" s="3">
         <v>23</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" s="3">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4300</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3658</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="3">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>2897</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="3">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4389</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>3054</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="3">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>4813</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2">
         <f t="shared" ca="1" si="2"/>
         <v>4409</v>
       </c>
-      <c r="F78" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43585</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3208</v>
-      </c>
-      <c r="F79" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43524</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4844</v>
-      </c>
-      <c r="F80" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81">
-        <v>23</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3929</v>
-      </c>
-      <c r="F81" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43540</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3172</v>
-      </c>
-      <c r="F82" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83">
-        <v>23</v>
-      </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>3452</v>
-      </c>
-      <c r="F83" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>43490</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84">
-        <v>23</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>4022</v>
-      </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43568</v>
+        <v>43498</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3">
         <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="3">
+        <v>6</v>
+      </c>
+      <c r="E85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3213</v>
+        <v>3716</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43484</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="C86" s="3">
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2982</v>
+        <v>3311</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43533</v>
+        <v>43505</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="C87" s="3">
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4041</v>
+        <v>4641</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43557</v>
+        <v>43537</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88">
+        <v>17</v>
+      </c>
+      <c r="C88" s="3">
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4110</v>
+        <v>4927</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43573</v>
+        <v>43531</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89">
+        <v>18</v>
+      </c>
+      <c r="C89" s="3">
         <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="3">
+        <v>6</v>
+      </c>
+      <c r="E89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4879</v>
+        <v>2780</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43480</v>
+        <v>43515</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3">
         <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="3">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3378</v>
+        <v>4373</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43500</v>
+        <v>43511</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91">
+        <v>20</v>
+      </c>
+      <c r="C91" s="3">
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4052</v>
+        <v>4692</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43542</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92">
+        <v>21</v>
+      </c>
+      <c r="C92" s="3">
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="3">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3119</v>
+        <v>3502</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43519</v>
+        <v>43548</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93">
+        <v>22</v>
+      </c>
+      <c r="C93" s="3">
         <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" s="3">
+        <v>6</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4479</v>
+        <v>3299</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43480</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3">
         <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" s="3">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3502</v>
+        <v>4488</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43564</v>
+        <v>43476</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="C95" s="3">
         <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="3">
+        <v>6</v>
+      </c>
+      <c r="E95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4003</v>
+        <v>4837</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43489</v>
+        <v>43499</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="C96" s="3">
         <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="3">
+        <v>6</v>
+      </c>
+      <c r="E96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4586</v>
+        <v>3260</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43486</v>
+        <v>43559</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="C97" s="3">
         <v>23</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="3">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2714</v>
+        <v>3907</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43498</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="C98" s="3">
         <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="3">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4704</v>
+        <v>4902</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43566</v>
+        <v>43547</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="C99" s="3">
         <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="3">
+        <v>6</v>
+      </c>
+      <c r="E99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3708</v>
+        <v>3822</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43574</v>
+        <v>43509</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100">
+        <v>14</v>
+      </c>
+      <c r="C100" s="3">
         <v>23</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3740</v>
+        <v>3762</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43532</v>
+        <v>43571</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="C101" s="3">
         <v>23</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4613</v>
+        <v>4524</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>43563</v>
+        <v>43510</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="2"/>
+      <c r="A102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4399,5 +4725,229 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3083" r:id="rId4" name="Button 11">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Sumatoria">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>101</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>361950</xdr:colOff>
+                    <xdr:row>104</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$A$2:$A$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>VLOOKUP(Hoja4!C3,Datos!A2:F102,2,)</f>
+        <v>Jennifer Gabriela Roquell Gomez</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <f>VLOOKUP(Hoja4!C3,Datos!A3:F101,3,FALSE)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>VLOOKUP(Hoja4!C3,Datos!A2:F102,4,FALSE)</f>
+        <v xml:space="preserve">Gerente </v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10">
+        <f ca="1">VLOOKUP(Hoja4!C3,Datos!A2:F102,5,FALSE)</f>
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11">
+        <f ca="1">VLOOKUP(Hoja4!C3,Datos!A2:F102,6,FALSE)</f>
+        <v>43488</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5122" r:id="rId3" name="Spinner 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>809625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>171450</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>